--- a/mVR_session_log.xlsx
+++ b/mVR_session_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="15">
   <si>
     <t>Animal #</t>
   </si>
@@ -51,14 +51,26 @@
     <t>antibiasR</t>
   </si>
   <si>
-    <t>bad session</t>
+    <t xml:space="preserve">unbiased </t>
+  </si>
+  <si>
+    <t>switchL20</t>
+  </si>
+  <si>
+    <t>switchR20</t>
+  </si>
+  <si>
+    <t>ran thru dead ends</t>
+  </si>
+  <si>
+    <t>slow runner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,22 +94,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,19 +118,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E44"/>
+  <dimension ref="B2:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -481,6 +581,9 @@
       </c>
     </row>
     <row r="5" spans="2:4">
+      <c r="B5">
+        <v>145</v>
+      </c>
       <c r="C5">
         <v>36</v>
       </c>
@@ -489,6 +592,9 @@
       </c>
     </row>
     <row r="6" spans="2:4">
+      <c r="B6">
+        <v>145</v>
+      </c>
       <c r="C6">
         <v>37</v>
       </c>
@@ -497,6 +603,9 @@
       </c>
     </row>
     <row r="7" spans="2:4">
+      <c r="B7">
+        <v>145</v>
+      </c>
       <c r="C7">
         <v>38</v>
       </c>
@@ -505,6 +614,9 @@
       </c>
     </row>
     <row r="8" spans="2:4">
+      <c r="B8">
+        <v>145</v>
+      </c>
       <c r="C8">
         <v>39</v>
       </c>
@@ -513,6 +625,9 @@
       </c>
     </row>
     <row r="9" spans="2:4">
+      <c r="B9">
+        <v>145</v>
+      </c>
       <c r="C9">
         <v>40</v>
       </c>
@@ -521,6 +636,9 @@
       </c>
     </row>
     <row r="10" spans="2:4">
+      <c r="B10">
+        <v>145</v>
+      </c>
       <c r="C10">
         <v>41</v>
       </c>
@@ -529,6 +647,9 @@
       </c>
     </row>
     <row r="11" spans="2:4">
+      <c r="B11">
+        <v>145</v>
+      </c>
       <c r="C11">
         <v>42</v>
       </c>
@@ -537,6 +658,9 @@
       </c>
     </row>
     <row r="12" spans="2:4">
+      <c r="B12">
+        <v>145</v>
+      </c>
       <c r="C12">
         <v>52</v>
       </c>
@@ -545,6 +669,9 @@
       </c>
     </row>
     <row r="13" spans="2:4">
+      <c r="B13">
+        <v>145</v>
+      </c>
       <c r="C13">
         <v>58</v>
       </c>
@@ -564,6 +691,9 @@
       </c>
     </row>
     <row r="16" spans="2:4">
+      <c r="B16">
+        <v>148</v>
+      </c>
       <c r="C16">
         <v>51</v>
       </c>
@@ -572,6 +702,9 @@
       </c>
     </row>
     <row r="17" spans="2:5">
+      <c r="B17">
+        <v>148</v>
+      </c>
       <c r="C17">
         <v>56</v>
       </c>
@@ -580,6 +713,9 @@
       </c>
     </row>
     <row r="18" spans="2:5">
+      <c r="B18">
+        <v>148</v>
+      </c>
       <c r="C18">
         <v>60</v>
       </c>
@@ -588,175 +724,669 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="C19" s="1">
-        <v>67</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B19">
+        <v>148</v>
+      </c>
+      <c r="C19">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="20" spans="2:5">
+      <c r="B20">
+        <v>148</v>
+      </c>
       <c r="C20">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>148</v>
+      </c>
+      <c r="C21">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22">
+        <v>148</v>
+      </c>
+      <c r="C22">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="23" spans="2:5">
-      <c r="B23">
+      <c r="B23" s="1">
+        <v>148</v>
+      </c>
+      <c r="C23" s="1">
+        <v>86</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24">
+        <v>148</v>
+      </c>
+      <c r="C24">
+        <v>93</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
+        <v>148</v>
+      </c>
+      <c r="C25">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
         <v>149</v>
       </c>
-      <c r="C23">
+      <c r="C28">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="C24">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
+        <v>149</v>
+      </c>
+      <c r="C29">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="C25">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="C26">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="C27">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="C28">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
+      <c r="D29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="2:5">
+      <c r="B31">
+        <v>149</v>
+      </c>
       <c r="C31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:5">
+      <c r="B32">
+        <v>149</v>
+      </c>
       <c r="C32">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="2:4">
+      <c r="B33">
+        <v>149</v>
+      </c>
       <c r="C33">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:4">
+      <c r="B34">
+        <v>149</v>
+      </c>
       <c r="C34">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:4">
+      <c r="B35">
+        <v>149</v>
+      </c>
       <c r="C35">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>149</v>
+      </c>
+      <c r="C36">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>149</v>
+      </c>
+      <c r="C37" s="1">
+        <v>87</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>149</v>
+      </c>
+      <c r="C38">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="39" spans="2:4">
       <c r="B39">
+        <v>149</v>
+      </c>
+      <c r="C39">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <v>149</v>
+      </c>
+      <c r="C40">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>149</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42">
+        <v>149</v>
+      </c>
+      <c r="C42">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44">
+        <v>150</v>
+      </c>
+      <c r="C44">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45">
+        <v>150</v>
+      </c>
+      <c r="C45">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46">
+        <v>150</v>
+      </c>
+      <c r="C46">
+        <v>57</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47">
+        <v>150</v>
+      </c>
+      <c r="C47">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48">
+        <v>150</v>
+      </c>
+      <c r="C48">
+        <v>66</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49">
+        <v>150</v>
+      </c>
+      <c r="C49">
+        <v>70</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50">
+        <v>150</v>
+      </c>
+      <c r="C50">
+        <v>74</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51">
+        <v>150</v>
+      </c>
+      <c r="C51">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52">
+        <v>150</v>
+      </c>
+      <c r="C52" s="1">
+        <v>82</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53">
+        <v>150</v>
+      </c>
+      <c r="C53" s="2">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="3">
+        <v>150</v>
+      </c>
+      <c r="C54" s="2">
+        <v>91</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="3">
+        <v>150</v>
+      </c>
+      <c r="C55" s="2">
+        <v>96</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="3">
+        <v>150</v>
+      </c>
+      <c r="C56" s="2">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="3">
+        <v>150</v>
+      </c>
+      <c r="C57" s="2">
+        <v>99</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="3">
+        <v>150</v>
+      </c>
+      <c r="C58" s="2">
+        <v>101</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60">
         <v>151</v>
       </c>
-      <c r="C39">
+      <c r="C60">
         <v>43</v>
       </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="C40">
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61">
+        <v>151</v>
+      </c>
+      <c r="C61">
         <v>47</v>
       </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="C41">
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62">
+        <v>151</v>
+      </c>
+      <c r="C62">
         <v>55</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="C42">
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63">
+        <v>151</v>
+      </c>
+      <c r="C63">
         <v>61</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="C43">
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64">
+        <v>151</v>
+      </c>
+      <c r="C64">
         <v>68</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="C44">
+    <row r="65" spans="2:4">
+      <c r="B65">
+        <v>151</v>
+      </c>
+      <c r="C65">
         <v>72</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D65" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66">
+        <v>151</v>
+      </c>
+      <c r="C66">
+        <v>76</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67">
+        <v>151</v>
+      </c>
+      <c r="C67">
+        <v>80</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68">
+        <v>151</v>
+      </c>
+      <c r="C68" s="1">
+        <v>84</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69">
+        <v>151</v>
+      </c>
+      <c r="C69" s="2">
+        <v>89</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70">
+        <v>151</v>
+      </c>
+      <c r="C70" s="2">
+        <v>90</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73">
+        <v>5001</v>
+      </c>
+      <c r="C73">
+        <v>105</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74">
+        <v>5001</v>
+      </c>
+      <c r="C74">
+        <v>109</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75">
+        <v>5001</v>
+      </c>
+      <c r="C75">
+        <v>113</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81">
+        <v>5002</v>
+      </c>
+      <c r="C81">
+        <v>106</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82">
+        <v>5002</v>
+      </c>
+      <c r="C82">
+        <v>110</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83">
+        <v>5002</v>
+      </c>
+      <c r="C83">
+        <v>114</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87">
+        <v>146</v>
+      </c>
+      <c r="C87">
+        <v>103</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88">
+        <v>146</v>
+      </c>
+      <c r="C88">
+        <v>107</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89">
+        <v>146</v>
+      </c>
+      <c r="C89">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94">
+        <v>152</v>
+      </c>
+      <c r="C94">
+        <v>104</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95">
+        <v>152</v>
+      </c>
+      <c r="C95">
+        <v>108</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96">
+        <v>152</v>
+      </c>
+      <c r="C96">
+        <v>112</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/mVR_session_log.xlsx
+++ b/mVR_session_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="15">
   <si>
     <t>Animal #</t>
   </si>
@@ -102,12 +102,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -128,7 +134,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -170,14 +176,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -198,6 +220,13 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -218,6 +247,13 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E96"/>
+  <dimension ref="B2:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1191,7 +1227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:5">
       <c r="B65">
         <v>151</v>
       </c>
@@ -1202,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:5">
       <c r="B66">
         <v>151</v>
       </c>
@@ -1213,7 +1249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:5">
       <c r="B67">
         <v>151</v>
       </c>
@@ -1224,7 +1260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:5">
       <c r="B68">
         <v>151</v>
       </c>
@@ -1235,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:5">
       <c r="B69">
         <v>151</v>
       </c>
@@ -1246,7 +1282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:5">
       <c r="B70">
         <v>151</v>
       </c>
@@ -1257,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:5">
       <c r="B73">
         <v>5001</v>
       </c>
@@ -1268,7 +1304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:5">
       <c r="B74">
         <v>5001</v>
       </c>
@@ -1279,7 +1315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:5">
       <c r="B75">
         <v>5001</v>
       </c>
@@ -1290,104 +1326,278 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
-      <c r="B81">
-        <v>5002</v>
-      </c>
-      <c r="C81">
-        <v>106</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="B82">
-        <v>5002</v>
-      </c>
-      <c r="C82">
-        <v>110</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
+    <row r="76" spans="2:5">
+      <c r="B76">
+        <v>5001</v>
+      </c>
+      <c r="C76">
+        <v>117</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77">
+        <v>5001</v>
+      </c>
+      <c r="C77">
+        <v>120</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78">
+        <v>5001</v>
+      </c>
+      <c r="C78">
+        <v>124</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79">
+        <v>5001</v>
+      </c>
+      <c r="C79">
+        <v>125</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="83" spans="2:5">
       <c r="B83">
         <v>5002</v>
       </c>
       <c r="C83">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84">
+        <v>5002</v>
+      </c>
+      <c r="C84">
+        <v>110</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85">
+        <v>5002</v>
+      </c>
+      <c r="C85">
         <v>114</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86">
+        <v>5002</v>
+      </c>
+      <c r="C86">
+        <v>118</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
       <c r="B87">
+        <v>5002</v>
+      </c>
+      <c r="C87">
+        <v>122</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88">
+        <v>5002</v>
+      </c>
+      <c r="C88">
+        <v>129</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92">
         <v>146</v>
       </c>
-      <c r="C87">
+      <c r="C92">
         <v>103</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D92" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
-      <c r="B88">
+    <row r="93" spans="2:5">
+      <c r="B93">
         <v>146</v>
       </c>
-      <c r="C88">
+      <c r="C93">
         <v>107</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D93" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
-      <c r="B89">
+    <row r="94" spans="2:5">
+      <c r="B94">
         <v>146</v>
       </c>
-      <c r="C89">
+      <c r="C94">
         <v>111</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
-      <c r="B94">
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95">
+        <v>146</v>
+      </c>
+      <c r="C95">
+        <v>115</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96">
+        <v>146</v>
+      </c>
+      <c r="C96">
+        <v>119</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97">
+        <v>146</v>
+      </c>
+      <c r="C97">
+        <v>123</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99">
         <v>152</v>
       </c>
-      <c r="C94">
+      <c r="C99">
         <v>104</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D99" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
-      <c r="B95">
+    <row r="100" spans="2:5">
+      <c r="B100">
         <v>152</v>
       </c>
-      <c r="C95">
+      <c r="C100">
         <v>108</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
-      <c r="B96">
+    <row r="101" spans="2:5">
+      <c r="B101">
         <v>152</v>
       </c>
-      <c r="C96">
+      <c r="C101">
         <v>112</v>
       </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102">
+        <v>152</v>
+      </c>
+      <c r="C102">
+        <v>116</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103">
+        <v>152</v>
+      </c>
+      <c r="C103">
+        <v>121</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104">
+        <v>152</v>
+      </c>
+      <c r="C104">
+        <v>126</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105">
+        <v>152</v>
+      </c>
+      <c r="C105">
+        <v>127</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106">
+        <v>152</v>
+      </c>
+      <c r="C106">
+        <v>128</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mVR_session_log.xlsx
+++ b/mVR_session_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="17">
   <si>
     <t>Animal #</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>slow runner</t>
+  </si>
+  <si>
+    <t>euthanized</t>
+  </si>
+  <si>
+    <t>waterR</t>
   </si>
 </sst>
 </file>
@@ -134,8 +140,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -199,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -227,6 +245,12 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -254,6 +278,12 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E106"/>
+  <dimension ref="B2:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1599,6 +1629,253 @@
       </c>
       <c r="E106" s="4"/>
     </row>
+    <row r="108" spans="2:5">
+      <c r="B108">
+        <v>153</v>
+      </c>
+      <c r="C108">
+        <v>143</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109">
+        <v>153</v>
+      </c>
+      <c r="C109">
+        <v>148</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110">
+        <v>153</v>
+      </c>
+      <c r="C110">
+        <v>153</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111">
+        <v>153</v>
+      </c>
+      <c r="C111">
+        <v>156</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112">
+        <v>153</v>
+      </c>
+      <c r="C112">
+        <v>159</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113">
+        <v>153</v>
+      </c>
+      <c r="C113">
+        <v>163</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114">
+        <v>153</v>
+      </c>
+      <c r="C114">
+        <v>167</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117">
+        <v>154</v>
+      </c>
+      <c r="C117">
+        <v>144</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118">
+        <v>154</v>
+      </c>
+      <c r="C118">
+        <v>149</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119">
+        <v>154</v>
+      </c>
+      <c r="C119">
+        <v>154</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120">
+        <v>154</v>
+      </c>
+      <c r="C120">
+        <v>158</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121">
+        <v>154</v>
+      </c>
+      <c r="C121">
+        <v>161</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122">
+        <v>154</v>
+      </c>
+      <c r="C122">
+        <v>164</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123">
+        <v>154</v>
+      </c>
+      <c r="C123">
+        <v>166</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126">
+        <v>155</v>
+      </c>
+      <c r="C126">
+        <v>145</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131">
+        <v>156</v>
+      </c>
+      <c r="C131">
+        <v>146</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132">
+        <v>156</v>
+      </c>
+      <c r="C132">
+        <v>151</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133">
+        <v>156</v>
+      </c>
+      <c r="C133">
+        <v>155</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="3">
+        <v>156</v>
+      </c>
+      <c r="C134">
+        <v>157</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" s="3">
+        <v>156</v>
+      </c>
+      <c r="C135">
+        <v>160</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136">
+        <v>156</v>
+      </c>
+      <c r="C136">
+        <v>162</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137">
+        <v>156</v>
+      </c>
+      <c r="C137">
+        <v>165</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/mVR_session_log.xlsx
+++ b/mVR_session_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
   <si>
     <t>Animal #</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>waterR</t>
+  </si>
+  <si>
+    <t>ran dead ends</t>
+  </si>
+  <si>
+    <t>switchingRW20</t>
+  </si>
+  <si>
+    <t>head cap off</t>
+  </si>
+  <si>
+    <t>100% biased???</t>
+  </si>
+  <si>
+    <t>runs crooked</t>
   </si>
 </sst>
 </file>
@@ -140,8 +155,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -217,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -251,6 +276,11 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -284,6 +314,11 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -613,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E137"/>
+  <dimension ref="B2:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1389,7 +1424,9 @@
       <c r="D78" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="79" spans="2:5">
       <c r="B79">
@@ -1401,7 +1438,9 @@
       <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83">
@@ -1457,7 +1496,9 @@
       <c r="D87" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88">
@@ -1469,7 +1510,9 @@
       <c r="D88" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="92" spans="2:5">
       <c r="B92">
@@ -1591,7 +1634,9 @@
       <c r="D103" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="104" spans="2:5">
       <c r="B104">
@@ -1603,7 +1648,9 @@
       <c r="D104" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="105" spans="2:5">
       <c r="B105">
@@ -1615,7 +1662,9 @@
       <c r="D105" t="s">
         <v>9</v>
       </c>
-      <c r="E105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="106" spans="2:5">
       <c r="B106">
@@ -1627,7 +1676,9 @@
       <c r="D106" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="108" spans="2:5">
       <c r="B108">
@@ -1684,7 +1735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="2:5">
       <c r="B113">
         <v>153</v>
       </c>
@@ -1695,7 +1746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="2:5">
       <c r="B114">
         <v>153</v>
       </c>
@@ -1706,173 +1757,226 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="2:4">
-      <c r="B117">
-        <v>154</v>
-      </c>
-      <c r="C117">
-        <v>144</v>
-      </c>
-      <c r="D117" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4">
-      <c r="B118">
-        <v>154</v>
-      </c>
-      <c r="C118">
-        <v>149</v>
-      </c>
-      <c r="D118" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4">
+    <row r="115" spans="2:5">
+      <c r="B115">
+        <v>153</v>
+      </c>
+      <c r="C115">
+        <v>170</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116">
+        <v>153</v>
+      </c>
+      <c r="C116">
+        <v>171</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
       <c r="B119">
         <v>154</v>
       </c>
       <c r="C119">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
       <c r="B120">
         <v>154</v>
       </c>
       <c r="C120">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
       <c r="B121">
         <v>154</v>
       </c>
       <c r="C121">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:5">
       <c r="B122">
         <v>154</v>
       </c>
       <c r="C122">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D122" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
       <c r="B123">
         <v>154</v>
       </c>
       <c r="C123">
+        <v>161</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124">
+        <v>154</v>
+      </c>
+      <c r="C124">
+        <v>164</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125">
+        <v>154</v>
+      </c>
+      <c r="C125">
         <v>166</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D125" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:5">
       <c r="B126">
+        <v>154</v>
+      </c>
+      <c r="C126">
+        <v>168</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128">
         <v>155</v>
       </c>
-      <c r="C126">
+      <c r="C128">
         <v>145</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D128" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="2:4">
-      <c r="D127" t="s">
+    <row r="129" spans="2:5">
+      <c r="D129" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
-      <c r="B131">
-        <v>156</v>
-      </c>
-      <c r="C131">
-        <v>146</v>
-      </c>
-      <c r="D131" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4">
-      <c r="B132">
-        <v>156</v>
-      </c>
-      <c r="C132">
-        <v>151</v>
-      </c>
-      <c r="D132" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="2:5">
       <c r="B133">
         <v>156</v>
       </c>
       <c r="C133">
+        <v>146</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134">
+        <v>156</v>
+      </c>
+      <c r="C134">
+        <v>151</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135">
+        <v>156</v>
+      </c>
+      <c r="C135">
         <v>155</v>
       </c>
-      <c r="D133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4">
-      <c r="B134" s="3">
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="3">
         <v>156</v>
       </c>
-      <c r="C134">
+      <c r="C136">
         <v>157</v>
       </c>
-      <c r="D134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4">
-      <c r="B135" s="3">
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="3">
         <v>156</v>
       </c>
-      <c r="C135">
+      <c r="C137">
         <v>160</v>
       </c>
-      <c r="D135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4">
-      <c r="B136">
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138">
         <v>156</v>
       </c>
-      <c r="C136">
+      <c r="C138">
         <v>162</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D138" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="2:4">
-      <c r="B137">
+    <row r="139" spans="2:5">
+      <c r="B139">
         <v>156</v>
       </c>
-      <c r="C137">
+      <c r="C139">
         <v>165</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140">
+        <v>156</v>
+      </c>
+      <c r="C140">
+        <v>169</v>
+      </c>
+      <c r="D140" t="s">
         <v>16</v>
       </c>
     </row>

--- a/mVR_session_log.xlsx
+++ b/mVR_session_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="22">
   <si>
     <t>Animal #</t>
   </si>
@@ -155,8 +155,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -242,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -281,6 +285,8 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -319,6 +325,8 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E140"/>
+  <dimension ref="B2:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1580,26 +1588,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
-      <c r="B99">
-        <v>152</v>
-      </c>
-      <c r="C99">
-        <v>104</v>
-      </c>
-      <c r="D99" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100">
-        <v>152</v>
-      </c>
-      <c r="C100">
-        <v>108</v>
-      </c>
-      <c r="D100" t="s">
-        <v>6</v>
+    <row r="98" spans="2:5">
+      <c r="B98">
+        <v>146</v>
+      </c>
+      <c r="C98">
+        <v>135</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="2:5">
@@ -1607,10 +1604,10 @@
         <v>152</v>
       </c>
       <c r="C101">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="2:5">
@@ -1618,10 +1615,10 @@
         <v>152</v>
       </c>
       <c r="C102">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="2:5">
@@ -1629,13 +1626,10 @@
         <v>152</v>
       </c>
       <c r="C103">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="2:5">
@@ -1643,13 +1637,10 @@
         <v>152</v>
       </c>
       <c r="C104">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="2:5">
@@ -1657,7 +1648,7 @@
         <v>152</v>
       </c>
       <c r="C105">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -1671,7 +1662,7 @@
         <v>152</v>
       </c>
       <c r="C106">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -1680,26 +1671,32 @@
         <v>17</v>
       </c>
     </row>
+    <row r="107" spans="2:5">
+      <c r="B107">
+        <v>152</v>
+      </c>
+      <c r="C107">
+        <v>127</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="108" spans="2:5">
       <c r="B108">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C108">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D108" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109">
-        <v>153</v>
-      </c>
-      <c r="C109">
-        <v>148</v>
-      </c>
-      <c r="D109" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="2:5">
@@ -1707,10 +1704,10 @@
         <v>153</v>
       </c>
       <c r="C110">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="2:5">
@@ -1718,10 +1715,10 @@
         <v>153</v>
       </c>
       <c r="C111">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="2:5">
@@ -1729,7 +1726,7 @@
         <v>153</v>
       </c>
       <c r="C112">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -1740,10 +1737,10 @@
         <v>153</v>
       </c>
       <c r="C113">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="2:5">
@@ -1751,10 +1748,10 @@
         <v>153</v>
       </c>
       <c r="C114">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="2:5">
@@ -1762,7 +1759,7 @@
         <v>153</v>
       </c>
       <c r="C115">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D115" t="s">
         <v>16</v>
@@ -1773,35 +1770,35 @@
         <v>153</v>
       </c>
       <c r="C116">
+        <v>167</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117">
+        <v>153</v>
+      </c>
+      <c r="C117">
+        <v>170</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118">
+        <v>153</v>
+      </c>
+      <c r="C118">
         <v>171</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D118" t="s">
         <v>18</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E118" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119">
-        <v>154</v>
-      </c>
-      <c r="C119">
-        <v>144</v>
-      </c>
-      <c r="D119" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120">
-        <v>154</v>
-      </c>
-      <c r="C120">
-        <v>149</v>
-      </c>
-      <c r="D120" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="121" spans="2:5">
@@ -1809,10 +1806,10 @@
         <v>154</v>
       </c>
       <c r="C121">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="2:5">
@@ -1820,10 +1817,10 @@
         <v>154</v>
       </c>
       <c r="C122">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="2:5">
@@ -1831,7 +1828,7 @@
         <v>154</v>
       </c>
       <c r="C123">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -1842,10 +1839,10 @@
         <v>154</v>
       </c>
       <c r="C124">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D124" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="2:5">
@@ -1853,10 +1850,10 @@
         <v>154</v>
       </c>
       <c r="C125">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="2:5">
@@ -1864,51 +1861,48 @@
         <v>154</v>
       </c>
       <c r="C126">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D126" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="127" spans="2:5">
+      <c r="B127">
+        <v>154</v>
+      </c>
+      <c r="C127">
+        <v>166</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="128" spans="2:5">
       <c r="B128">
+        <v>154</v>
+      </c>
+      <c r="C128">
+        <v>168</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130">
         <v>155</v>
       </c>
-      <c r="C128">
+      <c r="C130">
         <v>145</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D130" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
-      <c r="D129" t="s">
+    <row r="131" spans="2:5">
+      <c r="D131" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133">
-        <v>156</v>
-      </c>
-      <c r="C133">
-        <v>146</v>
-      </c>
-      <c r="D133" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134">
-        <v>156</v>
-      </c>
-      <c r="C134">
-        <v>151</v>
-      </c>
-      <c r="D134" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="135" spans="2:5">
@@ -1916,57 +1910,60 @@
         <v>156</v>
       </c>
       <c r="C135">
+        <v>146</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136">
+        <v>156</v>
+      </c>
+      <c r="C136">
+        <v>151</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137">
+        <v>156</v>
+      </c>
+      <c r="C137">
         <v>155</v>
       </c>
-      <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="2:5">
-      <c r="B136" s="3">
+    <row r="138" spans="2:5">
+      <c r="B138" s="3">
         <v>156</v>
       </c>
-      <c r="C136">
+      <c r="C138">
         <v>157</v>
       </c>
-      <c r="D136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" s="3">
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="3">
         <v>156</v>
       </c>
-      <c r="C137">
+      <c r="C139">
         <v>160</v>
       </c>
-      <c r="D137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138">
-        <v>156</v>
-      </c>
-      <c r="C138">
-        <v>162</v>
-      </c>
-      <c r="D138" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139">
-        <v>156</v>
-      </c>
-      <c r="C139">
-        <v>165</v>
-      </c>
       <c r="D139" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="2:5">
@@ -1974,9 +1971,31 @@
         <v>156</v>
       </c>
       <c r="C140">
+        <v>162</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141">
+        <v>156</v>
+      </c>
+      <c r="C141">
+        <v>165</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142">
+        <v>156</v>
+      </c>
+      <c r="C142">
         <v>169</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D142" t="s">
         <v>16</v>
       </c>
     </row>
